--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>6.686327333333334</v>
+        <v>9.361143666666667</v>
       </c>
       <c r="H2">
-        <v>20.058982</v>
+        <v>28.083431</v>
       </c>
       <c r="I2">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218525</v>
       </c>
       <c r="J2">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218526</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.777551666666666</v>
+        <v>10.82167433333333</v>
       </c>
       <c r="N2">
-        <v>26.332655</v>
+        <v>32.465023</v>
       </c>
       <c r="O2">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="P2">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="Q2">
-        <v>58.68958362857889</v>
+        <v>101.3032481482126</v>
       </c>
       <c r="R2">
-        <v>528.20625265721</v>
+        <v>911.729233333913</v>
       </c>
       <c r="S2">
-        <v>0.01315401832539083</v>
+        <v>0.01795595207838254</v>
       </c>
       <c r="T2">
-        <v>0.01315401832539083</v>
+        <v>0.01795595207838255</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6.686327333333334</v>
+        <v>9.361143666666667</v>
       </c>
       <c r="H3">
-        <v>20.058982</v>
+        <v>28.083431</v>
       </c>
       <c r="I3">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218525</v>
       </c>
       <c r="J3">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218526</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.141407</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N3">
         <v>108.424221</v>
       </c>
       <c r="O3">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="P3">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="Q3">
-        <v>241.6532774892247</v>
+        <v>338.3249032424724</v>
       </c>
       <c r="R3">
-        <v>2174.879497403022</v>
+        <v>3044.924129182251</v>
       </c>
       <c r="S3">
-        <v>0.05416142770070947</v>
+        <v>0.05996792660248412</v>
       </c>
       <c r="T3">
-        <v>0.05416142770070947</v>
+        <v>0.05996792660248412</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>6.686327333333334</v>
+        <v>9.361143666666667</v>
       </c>
       <c r="H4">
-        <v>20.058982</v>
+        <v>28.083431</v>
       </c>
       <c r="I4">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218525</v>
       </c>
       <c r="J4">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218526</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.24393266666667</v>
+        <v>26.40107466666666</v>
       </c>
       <c r="N4">
-        <v>54.731798</v>
+        <v>79.20322399999999</v>
       </c>
       <c r="O4">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="P4">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="Q4">
-        <v>121.9849056566262</v>
+        <v>247.1442529090604</v>
       </c>
       <c r="R4">
-        <v>1097.864150909636</v>
+        <v>2224.298276181544</v>
       </c>
       <c r="S4">
-        <v>0.02734031467292567</v>
+        <v>0.04380620012489743</v>
       </c>
       <c r="T4">
-        <v>0.02734031467292567</v>
+        <v>0.04380620012489744</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>6.686327333333334</v>
+        <v>9.361143666666667</v>
       </c>
       <c r="H5">
-        <v>20.058982</v>
+        <v>28.083431</v>
       </c>
       <c r="I5">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218525</v>
       </c>
       <c r="J5">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218526</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.580447</v>
+        <v>45.11859966666666</v>
       </c>
       <c r="N5">
-        <v>163.741341</v>
+        <v>135.355799</v>
       </c>
       <c r="O5">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="P5">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="Q5">
-        <v>364.9427346416513</v>
+        <v>422.3616935184854</v>
       </c>
       <c r="R5">
-        <v>3284.484611774862</v>
+        <v>3801.255241666369</v>
       </c>
       <c r="S5">
-        <v>0.08179412976542129</v>
+        <v>0.07486340731608844</v>
       </c>
       <c r="T5">
-        <v>0.08179412976542129</v>
+        <v>0.07486340731608847</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>40.136059</v>
       </c>
       <c r="I6">
-        <v>0.353058954548371</v>
+        <v>0.2809659460057553</v>
       </c>
       <c r="J6">
-        <v>0.3530589545483711</v>
+        <v>0.2809659460057554</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.777551666666666</v>
+        <v>10.82167433333333</v>
       </c>
       <c r="N6">
-        <v>26.332655</v>
+        <v>32.465023</v>
       </c>
       <c r="O6">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="P6">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="Q6">
-        <v>117.4321105229606</v>
+        <v>144.7797865071508</v>
       </c>
       <c r="R6">
-        <v>1056.888994706645</v>
+        <v>1303.018078564357</v>
       </c>
       <c r="S6">
-        <v>0.02631990275453499</v>
+        <v>0.02566214762074956</v>
       </c>
       <c r="T6">
-        <v>0.02631990275453499</v>
+        <v>0.02566214762074957</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>40.136059</v>
       </c>
       <c r="I7">
-        <v>0.353058954548371</v>
+        <v>0.2809659460057553</v>
       </c>
       <c r="J7">
-        <v>0.3530589545483711</v>
+        <v>0.2809659460057554</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.141407</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N7">
         <v>108.424221</v>
       </c>
       <c r="O7">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="P7">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="Q7">
-        <v>483.5245478983377</v>
+        <v>483.5245478983378</v>
       </c>
       <c r="R7">
-        <v>4351.720931085039</v>
+        <v>4351.72093108504</v>
       </c>
       <c r="S7">
-        <v>0.1083717138646373</v>
+        <v>0.08570449387843572</v>
       </c>
       <c r="T7">
-        <v>0.1083717138646373</v>
+        <v>0.08570449387843573</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>40.136059</v>
       </c>
       <c r="I8">
-        <v>0.353058954548371</v>
+        <v>0.2809659460057553</v>
       </c>
       <c r="J8">
-        <v>0.3530589545483711</v>
+        <v>0.2809659460057554</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.24393266666667</v>
+        <v>26.40107466666666</v>
       </c>
       <c r="N8">
-        <v>54.731798</v>
+        <v>79.20322399999999</v>
       </c>
       <c r="O8">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="P8">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="Q8">
-        <v>244.0798526337869</v>
+        <v>353.2116968282462</v>
       </c>
       <c r="R8">
-        <v>2196.718673704082</v>
+        <v>3178.905271454216</v>
       </c>
       <c r="S8">
-        <v>0.054705292760675</v>
+        <v>0.06260660361544466</v>
       </c>
       <c r="T8">
-        <v>0.05470529276067502</v>
+        <v>0.06260660361544468</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>40.136059</v>
       </c>
       <c r="I9">
-        <v>0.353058954548371</v>
+        <v>0.2809659460057553</v>
       </c>
       <c r="J9">
-        <v>0.3530589545483711</v>
+        <v>0.2809659460057554</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.580447</v>
+        <v>45.11859966666666</v>
       </c>
       <c r="N9">
-        <v>163.741341</v>
+        <v>135.355799</v>
       </c>
       <c r="O9">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="P9">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="Q9">
-        <v>730.2146803461244</v>
+        <v>603.6275927395712</v>
       </c>
       <c r="R9">
-        <v>6571.93212311512</v>
+        <v>5432.648334656141</v>
       </c>
       <c r="S9">
-        <v>0.1636620451685238</v>
+        <v>0.1069927008911254</v>
       </c>
       <c r="T9">
-        <v>0.1636620451685238</v>
+        <v>0.1069927008911254</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.203868666666668</v>
+        <v>7.684952333333334</v>
       </c>
       <c r="H10">
-        <v>12.611606</v>
+        <v>23.054857</v>
       </c>
       <c r="I10">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="J10">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.777551666666666</v>
+        <v>10.82167433333333</v>
       </c>
       <c r="N10">
-        <v>26.332655</v>
+        <v>32.465023</v>
       </c>
       <c r="O10">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="P10">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="Q10">
-        <v>36.89967442154778</v>
+        <v>83.16405141852346</v>
       </c>
       <c r="R10">
-        <v>332.09706979393</v>
+        <v>748.4764627667112</v>
       </c>
       <c r="S10">
-        <v>0.008270274953963716</v>
+        <v>0.01474078817029025</v>
       </c>
       <c r="T10">
-        <v>0.008270274953963716</v>
+        <v>0.01474078817029025</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.203868666666668</v>
+        <v>7.684952333333334</v>
       </c>
       <c r="H11">
-        <v>12.611606</v>
+        <v>23.054857</v>
       </c>
       <c r="I11">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="J11">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.141407</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N11">
         <v>108.424221</v>
       </c>
       <c r="O11">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="P11">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="Q11">
-        <v>151.9337284565474</v>
+        <v>277.7449900545998</v>
       </c>
       <c r="R11">
-        <v>1367.403556108926</v>
+        <v>2499.704910491398</v>
       </c>
       <c r="S11">
-        <v>0.03405270449710927</v>
+        <v>0.04923016608642895</v>
       </c>
       <c r="T11">
-        <v>0.03405270449710927</v>
+        <v>0.04923016608642895</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.203868666666668</v>
+        <v>7.684952333333334</v>
       </c>
       <c r="H12">
-        <v>12.611606</v>
+        <v>23.054857</v>
       </c>
       <c r="I12">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="J12">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.24393266666667</v>
+        <v>26.40107466666666</v>
       </c>
       <c r="N12">
-        <v>54.731798</v>
+        <v>79.20322399999999</v>
       </c>
       <c r="O12">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="P12">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="Q12">
-        <v>76.69509689417646</v>
+        <v>202.8910003621075</v>
       </c>
       <c r="R12">
-        <v>690.2558720475881</v>
+        <v>1826.019003258968</v>
       </c>
       <c r="S12">
-        <v>0.01718957006746192</v>
+        <v>0.03596233236576017</v>
       </c>
       <c r="T12">
-        <v>0.01718957006746192</v>
+        <v>0.03596233236576018</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.203868666666668</v>
+        <v>7.684952333333334</v>
       </c>
       <c r="H13">
-        <v>12.611606</v>
+        <v>23.054857</v>
       </c>
       <c r="I13">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="J13">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.580447</v>
+        <v>45.11859966666666</v>
       </c>
       <c r="N13">
-        <v>163.741341</v>
+        <v>135.355799</v>
       </c>
       <c r="O13">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="P13">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="Q13">
-        <v>229.4490309559607</v>
+        <v>346.7342877850825</v>
       </c>
       <c r="R13">
-        <v>2065.041278603646</v>
+        <v>3120.608590065743</v>
       </c>
       <c r="S13">
-        <v>0.05142610615605347</v>
+        <v>0.06145848597363952</v>
       </c>
       <c r="T13">
-        <v>0.05142610615605347</v>
+        <v>0.06145848597363952</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.62475033333333</v>
+        <v>17.19197166666666</v>
       </c>
       <c r="H14">
-        <v>40.874251</v>
+        <v>51.57591499999999</v>
       </c>
       <c r="I14">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762732</v>
       </c>
       <c r="J14">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762733</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.777551666666666</v>
+        <v>10.82167433333333</v>
       </c>
       <c r="N14">
-        <v>26.332655</v>
+        <v>32.465023</v>
       </c>
       <c r="O14">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="P14">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="Q14">
-        <v>119.5919499962672</v>
+        <v>186.0459185245605</v>
       </c>
       <c r="R14">
-        <v>1076.327549966405</v>
+        <v>1674.413266721045</v>
       </c>
       <c r="S14">
-        <v>0.02680398470324289</v>
+        <v>0.03297654970073747</v>
       </c>
       <c r="T14">
-        <v>0.0268039847032429</v>
+        <v>0.03297654970073748</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.62475033333333</v>
+        <v>17.19197166666666</v>
       </c>
       <c r="H15">
-        <v>40.874251</v>
+        <v>51.57591499999999</v>
       </c>
       <c r="I15">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762732</v>
       </c>
       <c r="J15">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762733</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>36.141407</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N15">
         <v>108.424221</v>
       </c>
       <c r="O15">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="P15">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="Q15">
-        <v>492.4176470703857</v>
+        <v>621.3420451374684</v>
       </c>
       <c r="R15">
-        <v>4431.758823633471</v>
+        <v>5592.078406237215</v>
       </c>
       <c r="S15">
-        <v>0.110364912354832</v>
+        <v>0.110132579070412</v>
       </c>
       <c r="T15">
-        <v>0.110364912354832</v>
+        <v>0.110132579070412</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.62475033333333</v>
+        <v>17.19197166666666</v>
       </c>
       <c r="H16">
-        <v>40.874251</v>
+        <v>51.57591499999999</v>
       </c>
       <c r="I16">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762732</v>
       </c>
       <c r="J16">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762733</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.24393266666667</v>
+        <v>26.40107466666666</v>
       </c>
       <c r="N16">
-        <v>54.731798</v>
+        <v>79.20322399999999</v>
       </c>
       <c r="O16">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="P16">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="Q16">
-        <v>248.5690276814775</v>
+        <v>453.8865276388843</v>
       </c>
       <c r="R16">
-        <v>2237.121249133298</v>
+        <v>4084.978748749959</v>
       </c>
       <c r="S16">
-        <v>0.05571144559380663</v>
+        <v>0.0804511690225706</v>
       </c>
       <c r="T16">
-        <v>0.05571144559380664</v>
+        <v>0.08045116902257063</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.62475033333333</v>
+        <v>17.19197166666666</v>
       </c>
       <c r="H17">
-        <v>40.874251</v>
+        <v>51.57591499999999</v>
       </c>
       <c r="I17">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762732</v>
       </c>
       <c r="J17">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762733</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.580447</v>
+        <v>45.11859966666666</v>
       </c>
       <c r="N17">
-        <v>163.741341</v>
+        <v>135.355799</v>
       </c>
       <c r="O17">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="P17">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="Q17">
-        <v>743.6449634567323</v>
+        <v>775.6776871090092</v>
       </c>
       <c r="R17">
-        <v>6692.804671110592</v>
+        <v>6981.099183981084</v>
       </c>
       <c r="S17">
-        <v>0.1666721566607119</v>
+        <v>0.1374884974825532</v>
       </c>
       <c r="T17">
-        <v>0.1666721566607119</v>
+        <v>0.1374884974825532</v>
       </c>
     </row>
   </sheetData>
